--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3178.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3178.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.032106767036522</v>
+        <v>1.029143929481506</v>
       </c>
       <c r="B1">
-        <v>1.385905641717326</v>
+        <v>2.122998714447021</v>
       </c>
       <c r="C1">
-        <v>2.277690387681254</v>
+        <v>3.96337628364563</v>
       </c>
       <c r="D1">
-        <v>8.212735860836773</v>
+        <v>0.9487218856811523</v>
       </c>
       <c r="E1">
-        <v>2.812788926359786</v>
+        <v>0.8074910640716553</v>
       </c>
     </row>
   </sheetData>
